--- a/Output/Class imbalance/train_class_observations_adjusted.xlsx
+++ b/Output/Class imbalance/train_class_observations_adjusted.xlsx
@@ -517,7 +517,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>External venturing</t>
+          <t>Venturing</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -587,7 +587,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>New geographical market entry</t>
+          <t>Market entry</t>
         </is>
       </c>
       <c r="B16" t="n">
